--- a/BalanceSheet/EBAY_bal.xlsx
+++ b/BalanceSheet/EBAY_bal.xlsx
@@ -4648,7 +4648,7 @@
         <v>4765000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>5597000000.0</v>
+        <v>5312000000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>4667000000.0</v>
@@ -4775,7 +4775,7 @@
         <v>9195000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>8422000000.0</v>
+        <v>8063000000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>7753000000.0</v>
